--- a/biology/Zoologie/Aubergina/Aubergina.xlsx
+++ b/biology/Zoologie/Aubergina/Aubergina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aubergina est un genre d'insectes lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Theclinae présents en Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été décrit par Kurt Johnson (d) en 1991.
 </t>
@@ -542,13 +556,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Aubergina alda (Hewitson, 1868), présent au Brésil et en Guyane.
-Aubergina hesychia (Godman &amp; Salvin, [1887]) présent au Costa Rica.
+Aubergina hesychia (Godman &amp; Salvin, ) présent au Costa Rica.
 Aubergina hicetas (Godman &amp; Salvin, 1887), présent au Mexique.
 Aubergina paetus (Godman &amp; Salvin, 1887), présent au Panama.
-Aubergina vanessoides (Prittwitz, 1865), présent au Brésil[1].</t>
+Aubergina vanessoides (Prittwitz, 1865), présent au Brésil.</t>
         </is>
       </c>
     </row>
@@ -576,9 +592,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Arumecla sont présents en Amérique centrale et Amérique du Sud[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Arumecla sont présents en Amérique centrale et Amérique du Sud.
 Sur les autres projets Wikimedia :
 Aubergina, sur Wikimedia CommonsAubergina, sur Wikispecies
 </t>
